--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/36_Hakkari_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/36_Hakkari_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DE88F3-ED5C-4741-836B-6D7520B6608B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A0B9DF-1040-4C95-9283-9434341DCC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{C2831623-09B3-4807-8BA3-D0F83FB70919}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{02984A15-A781-46A1-A42E-7628A3A9E642}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="141" r:id="rId1"/>
@@ -793,13 +793,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A8757F89-9266-4DD8-B660-16AC6E561E9B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CB7CA290-567E-4633-957D-4F8A6F5BC26D}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{9A8BCB51-507F-401C-956F-1937D9E10F89}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3FD2B4E6-1152-43F5-A535-3B4D4E80DF7D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{26BC2FF9-E27E-4FA6-9484-7AFE47075AA5}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{AA558124-DAF3-4EBB-A67D-2C747651F7C9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{8945B1C8-F13E-4182-A592-39BBBEC6C105}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3CA457AF-1D37-4CA1-8E33-B1A3E252E030}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{6BD26288-0F13-4CBA-B0C1-3B401B73D5D9}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{C65DA85F-96F9-4017-BA2F-98CD72096A04}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{660A0753-4D36-418D-82AD-0552F9173D00}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8EFA8339-CDEA-4D71-9021-30D041E6BC12}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{391AA326-023D-47F1-B71F-368080B55893}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{2B887430-9DFF-4CAF-88C4-16B1B55E47B0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1169,7 +1169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95311DC9-F491-4175-9C23-3A53B03AECD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F4934-9661-4DBE-91DF-3D925E4C7F44}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2408,7 +2408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D4D310-A563-4013-8565-965D483B5610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA54A027-F813-4377-AC98-20C6C0E19388}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3655,7 +3655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510E6B6C-2600-419A-AAF9-E0319B7EB053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9488662-C84D-41A7-9BB1-7D594BF03908}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4900,7 +4900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0464EA6A-453C-4CFF-9E9E-36095675E099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F92AEE9-63DD-4A33-B7A7-5DE4C5116D07}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6145,7 +6145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60034302-BE9A-4065-98B0-2CB9C03D854F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7120EBED-52FD-41F1-87A7-E5EE93DC8EFA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7378,7 +7378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D9DA12-27B4-4EC2-9536-6CFA381F2452}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98659D79-B1B4-4073-9E9D-25F411A3F9D7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
